--- a/natmiOut/OldD7/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H2">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>702.6219929769492</v>
+        <v>840.9935162323034</v>
       </c>
       <c r="R2">
-        <v>702.6219929769492</v>
+        <v>7568.94164609073</v>
       </c>
       <c r="S2">
-        <v>0.004793290818041183</v>
+        <v>0.005197232822798192</v>
       </c>
       <c r="T2">
-        <v>0.004793290818041183</v>
+        <v>0.005197232822798192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H3">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>24996.19972684323</v>
+        <v>25171.82180252529</v>
       </c>
       <c r="R3">
-        <v>24996.19972684323</v>
+        <v>226546.3962227276</v>
       </c>
       <c r="S3">
-        <v>0.1705242019666354</v>
+        <v>0.1555586528987874</v>
       </c>
       <c r="T3">
-        <v>0.1705242019666354</v>
+        <v>0.1555586528987874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H4">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>9097.361391921235</v>
+        <v>10750.53121068864</v>
       </c>
       <c r="R4">
-        <v>9097.361391921235</v>
+        <v>96754.78089619774</v>
       </c>
       <c r="S4">
-        <v>0.0620622457938475</v>
+        <v>0.06643691371251173</v>
       </c>
       <c r="T4">
-        <v>0.0620622457938475</v>
+        <v>0.06643691371251174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H5">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J5">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>2881.942677847141</v>
+        <v>3456.418977725391</v>
       </c>
       <c r="R5">
-        <v>2881.942677847141</v>
+        <v>31107.77079952852</v>
       </c>
       <c r="S5">
-        <v>0.01966062764035756</v>
+        <v>0.02136022907864479</v>
       </c>
       <c r="T5">
-        <v>0.01966062764035756</v>
+        <v>0.02136022907864479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H6">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>1468.922921572361</v>
+        <v>1757.407987155126</v>
       </c>
       <c r="R6">
-        <v>1468.922921572361</v>
+        <v>15816.67188439613</v>
       </c>
       <c r="S6">
-        <v>0.01002099965950542</v>
+        <v>0.01086055754009806</v>
       </c>
       <c r="T6">
-        <v>0.01002099965950542</v>
+        <v>0.01086055754009806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H7">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>52257.815863964</v>
+        <v>52601.07222370555</v>
       </c>
       <c r="R7">
-        <v>52257.815863964</v>
+        <v>473409.65001335</v>
       </c>
       <c r="S7">
-        <v>0.3565030862332304</v>
+        <v>0.3250679271585566</v>
       </c>
       <c r="T7">
-        <v>0.3565030862332304</v>
+        <v>0.3250679271585566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H8">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J8">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>19019.22058801674</v>
+        <v>22465.1784480654</v>
       </c>
       <c r="R8">
-        <v>19019.22058801674</v>
+        <v>202186.6060325886</v>
       </c>
       <c r="S8">
-        <v>0.1297492198110447</v>
+        <v>0.1388319416817631</v>
       </c>
       <c r="T8">
-        <v>0.1297492198110447</v>
+        <v>0.1388319416817631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H9">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J9">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>6025.077069123539</v>
+        <v>7222.812306119224</v>
       </c>
       <c r="R9">
-        <v>6025.077069123539</v>
+        <v>65005.31075507301</v>
       </c>
       <c r="S9">
-        <v>0.04110310648127947</v>
+        <v>0.04463606016660945</v>
       </c>
       <c r="T9">
-        <v>0.04110310648127947</v>
+        <v>0.04463606016660945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H10">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>406.9250832125344</v>
+        <v>582.25591568905</v>
       </c>
       <c r="R10">
-        <v>406.9250832125344</v>
+        <v>5240.30324120145</v>
       </c>
       <c r="S10">
-        <v>0.002776044992171595</v>
+        <v>0.003598267403825807</v>
       </c>
       <c r="T10">
-        <v>0.002776044992171595</v>
+        <v>0.003598267403825808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H11">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J11">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>14476.60442672268</v>
+        <v>17427.53287665357</v>
       </c>
       <c r="R11">
-        <v>14476.60442672268</v>
+        <v>156847.7958898821</v>
       </c>
       <c r="S11">
-        <v>0.09875946920053302</v>
+        <v>0.1076999336364913</v>
       </c>
       <c r="T11">
-        <v>0.09875946920053302</v>
+        <v>0.1076999336364913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H12">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>5268.756996542657</v>
+        <v>7443.054284492458</v>
       </c>
       <c r="R12">
-        <v>5268.756996542657</v>
+        <v>66987.48856043213</v>
       </c>
       <c r="S12">
-        <v>0.03594348709042856</v>
+        <v>0.04599712754330871</v>
       </c>
       <c r="T12">
-        <v>0.03594348709042856</v>
+        <v>0.04599712754330872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H13">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J13">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>1669.083484033748</v>
+        <v>2393.027244605533</v>
       </c>
       <c r="R13">
-        <v>1669.083484033748</v>
+        <v>21537.2452014498</v>
       </c>
       <c r="S13">
-        <v>0.01138649603703142</v>
+        <v>0.01478860359974375</v>
       </c>
       <c r="T13">
-        <v>0.01138649603703142</v>
+        <v>0.01478860359974375</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H14">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J14">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>155.0383741435788</v>
+        <v>202.900291986332</v>
       </c>
       <c r="R14">
-        <v>155.0383741435788</v>
+        <v>1826.102627876988</v>
       </c>
       <c r="S14">
-        <v>0.00105767257878993</v>
+        <v>0.001253897963436161</v>
       </c>
       <c r="T14">
-        <v>0.00105767257878993</v>
+        <v>0.001253897963436162</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H15">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J15">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>5515.583349445597</v>
+        <v>6073.01946445627</v>
       </c>
       <c r="R15">
-        <v>5515.583349445597</v>
+        <v>54657.17518010643</v>
       </c>
       <c r="S15">
-        <v>0.03762733772824808</v>
+        <v>0.03753048684081171</v>
       </c>
       <c r="T15">
-        <v>0.03762733772824808</v>
+        <v>0.03753048684081171</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H16">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J16">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>2007.395346712845</v>
+        <v>2593.701234974057</v>
       </c>
       <c r="R16">
-        <v>2007.395346712845</v>
+        <v>23343.31111476651</v>
       </c>
       <c r="S16">
-        <v>0.01369446128893512</v>
+        <v>0.01602874330271988</v>
       </c>
       <c r="T16">
-        <v>0.01369446128893512</v>
+        <v>0.01602874330271988</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="H17">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="I17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="J17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>635.9204687791076</v>
+        <v>833.9046690270346</v>
       </c>
       <c r="R17">
-        <v>635.9204687791076</v>
+        <v>7505.142021243312</v>
       </c>
       <c r="S17">
-        <v>0.004338252679920512</v>
+        <v>0.00515342464989327</v>
       </c>
       <c r="T17">
-        <v>0.004338252679920512</v>
+        <v>0.00515342464989327</v>
       </c>
     </row>
   </sheetData>
